--- a/Desarrollo/SAC/2. Requisitos/SAC_ER.xlsx
+++ b/Desarrollo/SAC/2. Requisitos/SAC_ER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Grupo-3\Desarrollo\SAC\2. Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B5AA46-FC23-4022-BBF0-58FB248B0148}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47B1C8-EBD4-4B80-87B0-DB1200E6A43C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITERACION1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>El sistema debe permitir al usuario visualizar los eventos del mes en un calendario. Pudiendo ver en cada día los detalles de los eventos.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario tomar la asistencia de cada alumno de una clase capturando la fecha de la clase, número de lección (incrementará automáticamente en cada registro), si el alumno estuvo presente o faltó. Al final se sumará los miembros presentes y guardará.</t>
   </si>
 </sst>
 </file>
@@ -781,14 +784,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,11 +799,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1266,13 +1269,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3721,8 +3724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3733,7 +3736,7 @@
     <col min="4" max="4" width="31.44140625"/>
     <col min="5" max="5" width="50"/>
     <col min="6" max="6" width="36.88671875"/>
-    <col min="7" max="7" width="35.88671875" style="53"/>
+    <col min="7" max="7" width="35.88671875" style="48"/>
     <col min="8" max="8" width="12.109375"/>
     <col min="9" max="9" width="15.6640625"/>
     <col min="10" max="26" width="8.5546875"/>
@@ -3741,14 +3744,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="12"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3861,10 +3864,10 @@
       <c r="G4" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="48">
-        <v>1</v>
-      </c>
-      <c r="I4" s="49" t="s">
+      <c r="H4" s="52">
+        <v>1</v>
+      </c>
+      <c r="I4" s="53" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="2"/>
@@ -3905,8 +3908,8 @@
       <c r="G5" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3945,10 +3948,10 @@
       <c r="G6" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="52">
         <v>2</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="53" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="2"/>
@@ -3987,8 +3990,8 @@
         <v>67</v>
       </c>
       <c r="G7" s="55"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -4113,10 +4116,10 @@
       <c r="G10" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="48">
-        <v>1</v>
-      </c>
-      <c r="I10" s="49" t="s">
+      <c r="H10" s="52">
+        <v>1</v>
+      </c>
+      <c r="I10" s="53" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="2"/>
@@ -4152,13 +4155,13 @@
         <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -4238,13 +4241,13 @@
       <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="52">
         <v>2</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="52" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="2"/>
@@ -4282,9 +4285,9 @@
       <c r="F14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -4364,13 +4367,13 @@
       <c r="F16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="52">
         <v>3</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="52" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="2"/>
@@ -4408,9 +4411,9 @@
       <c r="F17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -4446,13 +4449,13 @@
       <c r="F18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="52">
         <v>3</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="52" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="2"/>
@@ -4490,9 +4493,9 @@
       <c r="F19" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -4572,13 +4575,13 @@
       <c r="F21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="52">
         <v>4</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="52" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="2"/>
@@ -4616,9 +4619,9 @@
       <c r="F22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -4654,13 +4657,13 @@
       <c r="F23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="52">
         <v>3</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="52" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="2"/>
@@ -4698,9 +4701,9 @@
       <c r="F24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -6113,7 +6116,7 @@
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
       <c r="F74" s="29"/>
-      <c r="G74" s="52"/>
+      <c r="G74" s="47"/>
       <c r="H74" s="33"/>
       <c r="I74" s="33"/>
     </row>
@@ -7040,6 +7043,67 @@
     <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="H72:H73"/>
@@ -7052,67 +7116,6 @@
     <mergeCell ref="G69:G71"/>
     <mergeCell ref="H69:H71"/>
     <mergeCell ref="I69:I71"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="I41:I45"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" location="prototipo1" display="Prototipo" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
